--- a/pred_ohlcv/54_21/2020-01-25 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 AOA ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-151245.7527000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3457471.3531</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3457471.3531</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-3457471.3531</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-3431296.7275</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-6309295.3345</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-6309295.3345</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-6309295.3345</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-12792349.4602</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-13295184.4602</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-13293574.1939</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-16856550.1939</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-16845298.57010001</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-16849999.7285</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-16813604.09590001</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-19148244.09590001</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-19147939.62720001</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-18364338.51200001</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-21104705.95200001</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-21104396.65090001</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-21104679.65090001</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-21104973.61920001</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-18982090.41870001</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-20228983.41870001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-20784008.25780001</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-20784008.25780001</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-38255094.71739233</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 AOA ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-151245.7527000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3457471.3531</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3457471.3531</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-3457471.3531</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-3431296.7275</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-6309295.3345</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-6309295.3345</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-6309295.3345</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1659718.2274</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2177498.2274</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-4852172.803199999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-13629000.6085</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-13629000.6085</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-13465939.0171</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-13465939.0171</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-13441588.026</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-13442450.026</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-13442450.026</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-15117262.1939</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-16856550.1939</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-16845298.57010001</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-16850403.51240001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-19148244.09590001</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-19148244.09590001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-19147939.62720001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-18364338.51200001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-21104705.95200001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-21104679.65090001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-21104973.61920001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-20228983.41870001</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-20784008.25780001</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-20784008.25780001</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-20789907.8761</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-20789907.8761</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-19561048.62444118</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-21184161.62444118</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-23130657.62444118</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-25293925.62444118</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-26841349.62444118</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-28094450.62444118</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-30261853.62444118</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-30260853.62444118</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-30720349.62444118</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-30720349.62444118</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-30718696.72634118</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-34106581.02224118</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-34105301.27544118</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-38255094.71739233</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-41453839.10939232</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-38405390.55939232</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-39493161.65949231</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-39993958.65667213</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-42877166.65667213</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-45901334.66667213</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-45901334.66667213</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-42802640.66667213</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-43252040.66667213</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
